--- a/Data/Pages/dlgTruckInsurance_pagVehicleData.xlsx
+++ b/Data/Pages/dlgTruckInsurance_pagVehicleData.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\matth\PycharmProjects\OnTop\Data\Pages\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{13530701-82F1-4E0D-AE7A-0DB1C593C7B6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B6796437-7D85-41BD-9DCE-CF891810A5BE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1428" yWindow="744" windowWidth="34500" windowHeight="15768" xr2:uid="{AE079285-A10A-4E50-89E0-1FC0BD4174C7}"/>
+    <workbookView xWindow="4404" yWindow="888" windowWidth="35280" windowHeight="15720" xr2:uid="{AE079285-A10A-4E50-89E0-1FC0BD4174C7}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="36">
   <si>
     <t>Check defaults</t>
   </si>
@@ -33,21 +33,12 @@
     <t xml:space="preserve">Record / Control </t>
   </si>
   <si>
-    <t>comMake</t>
-  </si>
-  <si>
     <t>txtEnginePerformance</t>
   </si>
   <si>
     <t>calDateOfManufactoring</t>
   </si>
   <si>
-    <t>comNumberOfSeats</t>
-  </si>
-  <si>
-    <t>comFuelType</t>
-  </si>
-  <si>
     <t>txtListPrice</t>
   </si>
   <si>
@@ -70,6 +61,78 @@
   </si>
   <si>
     <t>VIA_Pixel9Pro_API35</t>
+  </si>
+  <si>
+    <t>id=make</t>
+  </si>
+  <si>
+    <t>id=engineperformance</t>
+  </si>
+  <si>
+    <t>id=dateofmanufacture</t>
+  </si>
+  <si>
+    <t>id=numberofseats</t>
+  </si>
+  <si>
+    <t>id=fuel</t>
+  </si>
+  <si>
+    <t>id=listprice</t>
+  </si>
+  <si>
+    <t>id=licenseplatenumber</t>
+  </si>
+  <si>
+    <t>id=annualmileage</t>
+  </si>
+  <si>
+    <t>id=nextenterinsurantdata</t>
+  </si>
+  <si>
+    <t>selMake</t>
+  </si>
+  <si>
+    <t>selNumberOfSeats</t>
+  </si>
+  <si>
+    <t>selFuelType</t>
+  </si>
+  <si>
+    <t>102_VehicleInsuranceAutomobile_001_SmokeTest_FillPage</t>
+  </si>
+  <si>
+    <t>Audi</t>
+  </si>
+  <si>
+    <t>11/29/2011</t>
+  </si>
+  <si>
+    <t>5</t>
+  </si>
+  <si>
+    <t>Petrol</t>
+  </si>
+  <si>
+    <t>25000</t>
+  </si>
+  <si>
+    <t>12345ABCDE</t>
+  </si>
+  <si>
+    <t>12500</t>
+  </si>
+  <si>
+    <t>X</t>
+  </si>
+  <si>
+    <t>1000</t>
+  </si>
+  <si>
+    <t>id=payload</t>
+  </si>
+  <si>
+    <t>id=totalweight</t>
   </si>
 </sst>
 </file>
@@ -125,11 +188,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="49" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="49" fontId="1" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="49" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
@@ -152,15 +216,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>8</xdr:col>
-      <xdr:colOff>617220</xdr:colOff>
-      <xdr:row>5</xdr:row>
-      <xdr:rowOff>137160</xdr:rowOff>
+      <xdr:colOff>594360</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>121920</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>19</xdr:col>
-      <xdr:colOff>735744</xdr:colOff>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>545244</xdr:colOff>
       <xdr:row>35</xdr:row>
-      <xdr:rowOff>7620</xdr:rowOff>
+      <xdr:rowOff>175260</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -183,7 +247,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="9456420" y="1051560"/>
+          <a:off x="10858500" y="1219200"/>
           <a:ext cx="9392064" cy="5356860"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -196,15 +260,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>132168</xdr:colOff>
-      <xdr:row>5</xdr:row>
-      <xdr:rowOff>7620</xdr:rowOff>
+      <xdr:colOff>109308</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>45720</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>11821</xdr:colOff>
-      <xdr:row>38</xdr:row>
-      <xdr:rowOff>16096</xdr:rowOff>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>171841</xdr:colOff>
+      <xdr:row>39</xdr:row>
+      <xdr:rowOff>54196</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -227,7 +291,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="132168" y="922020"/>
+          <a:off x="109308" y="1143000"/>
           <a:ext cx="8718853" cy="6043516"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -537,15 +601,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{82737E07-8287-4E6B-9130-6C87B574EFB8}">
-  <dimension ref="A1:L4"/>
+  <dimension ref="A1:L5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="W35" sqref="W35"/>
+      <selection activeCell="T19" sqref="T19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="14.21875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="35" customWidth="1"/>
     <col min="2" max="2" width="21.77734375" customWidth="1"/>
     <col min="3" max="3" width="19.88671875" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="19.21875" bestFit="1" customWidth="1"/>
@@ -556,60 +620,142 @@
     <col min="9" max="9" width="10.109375" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="20.5546875" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="15.88671875" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="7.77734375" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="21.77734375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>13</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="G1" t="s">
+        <v>34</v>
+      </c>
+      <c r="H1" t="s">
+        <v>35</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
-        <v>14</v>
-      </c>
+        <v>11</v>
+      </c>
+      <c r="B2" s="3"/>
+      <c r="C2" s="3"/>
+      <c r="D2" s="3"/>
+      <c r="E2" s="3"/>
+      <c r="F2" s="3"/>
+      <c r="G2" s="4"/>
+      <c r="H2" s="4"/>
+      <c r="I2" s="3"/>
+      <c r="J2" s="3"/>
+      <c r="K2" s="3"/>
+      <c r="L2" s="3"/>
     </row>
     <row r="3" spans="1:12" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
         <v>1</v>
       </c>
       <c r="B3" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="C3" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="C3" s="2" t="s">
+      <c r="D3" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="D3" s="2" t="s">
+      <c r="E3" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="H3" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="I3" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="E3" s="2" t="s">
+      <c r="J3" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="F3" s="2" t="s">
+      <c r="K3" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="G3" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="H3" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="I3" s="2" t="s">
+      <c r="L3" s="2" t="s">
         <v>7</v>
-      </c>
-      <c r="J3" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="K3" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="L3" s="2" t="s">
-        <v>10</v>
       </c>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C5" s="1">
+        <v>100</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="G5" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="H5" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="I5" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="J5" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="K5" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="L5" s="1" t="s">
+        <v>32</v>
       </c>
     </row>
   </sheetData>

--- a/Data/Pages/dlgTruckInsurance_pagVehicleData.xlsx
+++ b/Data/Pages/dlgTruckInsurance_pagVehicleData.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\matth\PycharmProjects\OnTop\Data\Pages\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B6796437-7D85-41BD-9DCE-CF891810A5BE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9D1EF650-D818-4494-82F8-C0CCF59EEFE5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4404" yWindow="888" windowWidth="35280" windowHeight="15720" xr2:uid="{AE079285-A10A-4E50-89E0-1FC0BD4174C7}"/>
+    <workbookView xWindow="2184" yWindow="960" windowWidth="39096" windowHeight="15720" xr2:uid="{AE079285-A10A-4E50-89E0-1FC0BD4174C7}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -99,9 +99,6 @@
     <t>selFuelType</t>
   </si>
   <si>
-    <t>102_VehicleInsuranceAutomobile_001_SmokeTest_FillPage</t>
-  </si>
-  <si>
     <t>Audi</t>
   </si>
   <si>
@@ -133,6 +130,9 @@
   </si>
   <si>
     <t>id=totalweight</t>
+  </si>
+  <si>
+    <t>103_TruckInsurance_001_SmokeTest_FillPage</t>
   </si>
 </sst>
 </file>
@@ -265,8 +265,8 @@
       <xdr:rowOff>45720</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>171841</xdr:colOff>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>331861</xdr:colOff>
       <xdr:row>39</xdr:row>
       <xdr:rowOff>54196</xdr:rowOff>
     </xdr:to>
@@ -604,12 +604,12 @@
   <dimension ref="A1:L5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="T19" sqref="T19"/>
+      <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="35" customWidth="1"/>
+    <col min="1" max="1" width="44.88671875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="21.77734375" customWidth="1"/>
     <col min="3" max="3" width="19.88671875" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="19.21875" bestFit="1" customWidth="1"/>
@@ -643,10 +643,10 @@
         <v>16</v>
       </c>
       <c r="G1" t="s">
+        <v>33</v>
+      </c>
+      <c r="H1" t="s">
         <v>34</v>
-      </c>
-      <c r="H1" t="s">
-        <v>35</v>
       </c>
       <c r="I1" s="1" t="s">
         <v>17</v>
@@ -722,40 +722,40 @@
     </row>
     <row r="5" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B5" s="1" t="s">
         <v>24</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>25</v>
       </c>
       <c r="C5" s="1">
         <v>100</v>
       </c>
       <c r="D5" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="E5" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="E5" s="1" t="s">
+      <c r="F5" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="F5" s="1" t="s">
+      <c r="G5" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="H5" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="I5" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="G5" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="H5" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="I5" s="1" t="s">
+      <c r="J5" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="J5" s="1" t="s">
+      <c r="K5" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="K5" s="1" t="s">
+      <c r="L5" s="1" t="s">
         <v>31</v>
-      </c>
-      <c r="L5" s="1" t="s">
-        <v>32</v>
       </c>
     </row>
   </sheetData>

--- a/Data/Pages/dlgTruckInsurance_pagVehicleData.xlsx
+++ b/Data/Pages/dlgTruckInsurance_pagVehicleData.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\matth\PycharmProjects\OnTop\Data\Pages\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9D1EF650-D818-4494-82F8-C0CCF59EEFE5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C5AC5380-71D3-4F4E-90FB-794DC75E17F8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2184" yWindow="960" windowWidth="39096" windowHeight="15720" xr2:uid="{AE079285-A10A-4E50-89E0-1FC0BD4174C7}"/>
+    <workbookView xWindow="2340" yWindow="720" windowWidth="36948" windowHeight="15672" xr2:uid="{AE079285-A10A-4E50-89E0-1FC0BD4174C7}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="72">
   <si>
     <t>Check defaults</t>
   </si>
@@ -63,33 +63,6 @@
     <t>VIA_Pixel9Pro_API35</t>
   </si>
   <si>
-    <t>id=make</t>
-  </si>
-  <si>
-    <t>id=engineperformance</t>
-  </si>
-  <si>
-    <t>id=dateofmanufacture</t>
-  </si>
-  <si>
-    <t>id=numberofseats</t>
-  </si>
-  <si>
-    <t>id=fuel</t>
-  </si>
-  <si>
-    <t>id=listprice</t>
-  </si>
-  <si>
-    <t>id=licenseplatenumber</t>
-  </si>
-  <si>
-    <t>id=annualmileage</t>
-  </si>
-  <si>
-    <t>id=nextenterinsurantdata</t>
-  </si>
-  <si>
     <t>selMake</t>
   </si>
   <si>
@@ -126,13 +99,148 @@
     <t>1000</t>
   </si>
   <si>
-    <t>id=payload</t>
-  </si>
-  <si>
-    <t>id=totalweight</t>
-  </si>
-  <si>
     <t>103_TruckInsurance_001_SmokeTest_FillPage</t>
+  </si>
+  <si>
+    <t>Button Next</t>
+  </si>
+  <si>
+    <t>xpath=//*[@id="entervehicledata"]/span[@class="counter"]</t>
+  </si>
+  <si>
+    <t>labMissingMandatoryCounter</t>
+  </si>
+  <si>
+    <t>Vehicle Page check for open mandatory fields</t>
+  </si>
+  <si>
+    <t>&lt;MissingMandatoryField&gt;</t>
+  </si>
+  <si>
+    <t>&lt;NoMandatoryField&gt;</t>
+  </si>
+  <si>
+    <t>&lt;FilledMandatoryField&gt;</t>
+  </si>
+  <si>
+    <t>Vehicle Page check for hints regarding mandatory fields</t>
+  </si>
+  <si>
+    <t>&lt;HINT Select an option&gt;</t>
+  </si>
+  <si>
+    <t>&lt;HINT This field is mandatory&gt;</t>
+  </si>
+  <si>
+    <t>&lt;NOHINT&gt;</t>
+  </si>
+  <si>
+    <t>Vehicle Page check error hint list value ranges</t>
+  </si>
+  <si>
+    <t>&lt;HINT Must be a number between 1 and 2000&gt;</t>
+  </si>
+  <si>
+    <t>&lt;HINT Must be a number between 500 and 100000&gt;</t>
+  </si>
+  <si>
+    <t>&lt;HINT Must be a number between 100 and 100000&gt;</t>
+  </si>
+  <si>
+    <t>0</t>
+  </si>
+  <si>
+    <t>499.9999</t>
+  </si>
+  <si>
+    <t>-8888</t>
+  </si>
+  <si>
+    <t>2001</t>
+  </si>
+  <si>
+    <t>999999999999999</t>
+  </si>
+  <si>
+    <t>100000.0001</t>
+  </si>
+  <si>
+    <t>12/31/2099</t>
+  </si>
+  <si>
+    <t>Vehicle Page check error hint manufacturing date in the future</t>
+  </si>
+  <si>
+    <t>&lt;HINT Must be today or somewhere in the past&gt;</t>
+  </si>
+  <si>
+    <t>103_TruckInsurance_002_VehicleData_001_MandatoryFields_FillMake</t>
+  </si>
+  <si>
+    <t>103_TruckInsurance_002_VehicleData_001_MandatoryFields_CheckFilledMake</t>
+  </si>
+  <si>
+    <t>103_TruckInsurance_002_VehicleData_002_EnterNumericValuesBelowRange</t>
+  </si>
+  <si>
+    <t>103_TruckInsurance_002_VehicleData_002_EnterNumericValuesAboveRange</t>
+  </si>
+  <si>
+    <t>103_TruckInsurance_002_VehicleData_002_ManufacturingDateInTheFuture</t>
+  </si>
+  <si>
+    <t>9</t>
+  </si>
+  <si>
+    <t>8</t>
+  </si>
+  <si>
+    <t>//*[@id='make']</t>
+  </si>
+  <si>
+    <t>//*[@id='engineperformance']</t>
+  </si>
+  <si>
+    <t>//*[@id='dateofmanufacture']</t>
+  </si>
+  <si>
+    <t>//*[@id='numberofseats']</t>
+  </si>
+  <si>
+    <t>//*[@id='fuel']</t>
+  </si>
+  <si>
+    <t>//*[@id='listprice']</t>
+  </si>
+  <si>
+    <t>//*[@id='licenseplatenumber']</t>
+  </si>
+  <si>
+    <t>//*[@id='annualmileage']</t>
+  </si>
+  <si>
+    <t>//*[@id='nextenterinsurantdata']</t>
+  </si>
+  <si>
+    <t>//*[@id='payload']</t>
+  </si>
+  <si>
+    <t>//*[@id='totalweight']</t>
+  </si>
+  <si>
+    <t>&lt;HINT Must be a number between 1 and 1000&gt;</t>
+  </si>
+  <si>
+    <t>1001</t>
+  </si>
+  <si>
+    <t>&lt;HINT Must be a number between 100 and 50000&gt;</t>
+  </si>
+  <si>
+    <t>99</t>
+  </si>
+  <si>
+    <t>50001</t>
   </si>
 </sst>
 </file>
@@ -215,16 +323,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>594360</xdr:colOff>
-      <xdr:row>6</xdr:row>
-      <xdr:rowOff>121920</xdr:rowOff>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>2377440</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>106680</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>18</xdr:col>
-      <xdr:colOff>545244</xdr:colOff>
-      <xdr:row>35</xdr:row>
-      <xdr:rowOff>175260</xdr:rowOff>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>476664</xdr:colOff>
+      <xdr:row>48</xdr:row>
+      <xdr:rowOff>160020</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -247,7 +355,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="10858500" y="1219200"/>
+          <a:off x="10142220" y="3581400"/>
           <a:ext cx="9392064" cy="5356860"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -260,15 +368,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>109308</xdr:colOff>
-      <xdr:row>6</xdr:row>
-      <xdr:rowOff>45720</xdr:rowOff>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>22860</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>331861</xdr:colOff>
-      <xdr:row>39</xdr:row>
-      <xdr:rowOff>54196</xdr:rowOff>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>954073</xdr:colOff>
+      <xdr:row>52</xdr:row>
+      <xdr:rowOff>31336</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -291,7 +399,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="109308" y="1143000"/>
+          <a:off x="0" y="3314700"/>
           <a:ext cx="8718853" cy="6043516"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -601,161 +709,371 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{82737E07-8287-4E6B-9130-6C87B574EFB8}">
-  <dimension ref="A1:L5"/>
+  <dimension ref="A1:M15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
+      <selection activeCell="I14" sqref="I14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="44.88671875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="21.77734375" customWidth="1"/>
-    <col min="3" max="3" width="19.88671875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="19.21875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="18.109375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12.21875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="10" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="13.44140625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="10.109375" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="20.5546875" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="15.88671875" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="21.77734375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="66.44140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="24.77734375" style="1" customWidth="1"/>
+    <col min="3" max="3" width="22" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="39.6640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="40.88671875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="22.44140625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="22" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="39.6640625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="42.77734375" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="10.109375" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="20.5546875" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="15.88671875" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="21.77734375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>10</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>12</v>
+        <v>26</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>13</v>
+        <v>56</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>14</v>
+        <v>57</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>15</v>
+        <v>58</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="G1" t="s">
-        <v>33</v>
+        <v>59</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>60</v>
       </c>
       <c r="H1" t="s">
-        <v>34</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>17</v>
+        <v>65</v>
+      </c>
+      <c r="I1" t="s">
+        <v>66</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>18</v>
+        <v>61</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>19</v>
+        <v>62</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
+        <v>63</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="B2" s="3"/>
       <c r="C2" s="3"/>
       <c r="D2" s="3"/>
       <c r="E2" s="3"/>
       <c r="F2" s="3"/>
-      <c r="G2" s="4"/>
+      <c r="G2" s="3"/>
       <c r="H2" s="4"/>
-      <c r="I2" s="3"/>
+      <c r="I2" s="4"/>
       <c r="J2" s="3"/>
       <c r="K2" s="3"/>
       <c r="L2" s="3"/>
-    </row>
-    <row r="3" spans="1:12" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="M2" s="3"/>
+    </row>
+    <row r="3" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
         <v>1</v>
       </c>
       <c r="B3" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="H3" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="I3" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="J3" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="K3" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="L3" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="M3" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="L4" s="1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D6" s="1">
+        <v>100</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="G6" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="H6" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="I6" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="J6" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="K6" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="L6" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="C3" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="E3" s="2" t="s">
+      <c r="M6" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="F3" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="G3" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="H3" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="I3" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="J3" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="K3" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="L3" s="2" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A4" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="1" t="s">
+    </row>
+    <row r="7" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="F7" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="G7" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="H7" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="I7" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="J7" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="K7" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="L7" s="1" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>49</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>50</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="F9" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="G9" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="H9" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="I9" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="J9" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="K9" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="L9" s="1" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>32</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="F10" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="G10" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="H10" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="I10" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="J10" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="K10" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="B5" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="C5" s="1">
-        <v>100</v>
-      </c>
-      <c r="D5" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="E5" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="F5" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="G5" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="H5" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="I5" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="J5" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="K5" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="L5" s="1" t="s">
-        <v>31</v>
+      <c r="L10" s="1" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
+        <v>36</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="H11" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="I11" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="J11" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="L11" s="1" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
+        <v>51</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="H12" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="I12" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="J12" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="L12" s="1" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
+        <v>52</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="H13" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="I13" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="J13" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="L13" s="1" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A14" t="s">
+        <v>53</v>
+      </c>
+      <c r="E14" s="1" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A15" t="s">
+        <v>47</v>
+      </c>
+      <c r="E15" s="1" t="s">
+        <v>48</v>
       </c>
     </row>
   </sheetData>

--- a/Data/Pages/dlgTruckInsurance_pagVehicleData.xlsx
+++ b/Data/Pages/dlgTruckInsurance_pagVehicleData.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\matth\PycharmProjects\OnTop\Data\Pages\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C5AC5380-71D3-4F4E-90FB-794DC75E17F8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{132AC133-2987-43AC-BC9A-6533A4DCC9EC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2340" yWindow="720" windowWidth="36948" windowHeight="15672" xr2:uid="{AE079285-A10A-4E50-89E0-1FC0BD4174C7}"/>
+    <workbookView xWindow="1452" yWindow="2628" windowWidth="39612" windowHeight="13668" xr2:uid="{AE079285-A10A-4E50-89E0-1FC0BD4174C7}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -712,7 +712,7 @@
   <dimension ref="A1:M15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I14" sqref="I14"/>
+      <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -834,7 +834,7 @@
       <c r="A4" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="L4" s="1" t="s">
+      <c r="M4" s="1" t="s">
         <v>22</v>
       </c>
     </row>
